--- a/config_1.5/activity_041_xyxfl_config.xlsx
+++ b/config_1.5/activity_041_xyxfl_config.xlsx
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
